--- a/results/metric_df/MAL-II_metrics.xlsx
+++ b/results/metric_df/MAL-II_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,35 +451,45 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>sum_SASA</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>max_SASA</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>flexibility</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>theta</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>conformation</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>monosaccharides</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>motifs</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>class</t>
         </is>
@@ -498,30 +508,36 @@
         <v>3.72349594265814</v>
       </c>
       <c r="D2" t="n">
+        <v>3.72349594265814</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.72349594265814</v>
+      </c>
+      <c r="F2" t="n">
         <v>4.2869</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>0.426</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>9.58</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-3)']</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>['Sia(a2-3)']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -540,30 +556,36 @@
         <v>3.614163003480155</v>
       </c>
       <c r="D3" t="n">
+        <v>3.614163003480155</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.614163003480155</v>
+      </c>
+      <c r="F3" t="n">
         <v>4.019566666666667</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>0.461</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>9.83</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-3)']</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>['Sia(a2-3)']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -582,30 +604,36 @@
         <v>4.144891176816192</v>
       </c>
       <c r="D4" t="n">
+        <v>4.144891176816192</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4.144891176816192</v>
+      </c>
+      <c r="F4" t="n">
         <v>1.272575</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>0.476</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>2.93</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-3)']</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>['Sia(a2-3)']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -624,30 +652,36 @@
         <v>3.837589611367167</v>
       </c>
       <c r="D5" t="n">
+        <v>3.837589611367167</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.837589611367167</v>
+      </c>
+      <c r="F5" t="n">
         <v>5.226847684768479</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>0.438</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>16.74</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-3)']</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>['Sia(a2-3)']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -666,30 +700,36 @@
         <v>4.108248112254997</v>
       </c>
       <c r="D6" t="n">
+        <v>4.108248112254997</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4.108248112254997</v>
+      </c>
+      <c r="F6" t="n">
         <v>5.13206</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>0.433</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>7.46</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-3)']</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>['Sia(a2-3)']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -708,30 +748,36 @@
         <v>4.03618621316521</v>
       </c>
       <c r="D7" t="n">
+        <v>4.03618621316521</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.03618621316521</v>
+      </c>
+      <c r="F7" t="n">
         <v>18.00978431176451</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
         <v>0.454</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>6.35</v>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-3)']</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>['Sia(a2-3)']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -750,30 +796,36 @@
         <v>3.779249531613628</v>
       </c>
       <c r="D8" t="n">
+        <v>7.558499063227256</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4.045729380137986</v>
+      </c>
+      <c r="F8" t="n">
         <v>11.09813</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>0.4565</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>5.81</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>['2C5', '2C5']</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>['Neu5Ac(a2-3)', 'Neu5Ac(a2-3)']</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>['Sia(a2-3)']</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -792,30 +844,36 @@
         <v>4.142362830816349</v>
       </c>
       <c r="D9" t="n">
+        <v>4.142362830816349</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.142362830816349</v>
+      </c>
+      <c r="F9" t="n">
         <v>19.83206666666667</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
         <v>0.379</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>12.79</v>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-3)']</t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>['Sia(a2-3)']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -834,30 +892,36 @@
         <v>4.214625870722777</v>
       </c>
       <c r="D10" t="n">
+        <v>4.214625870722777</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4.214625870722777</v>
+      </c>
+      <c r="F10" t="n">
         <v>3.8557</v>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
         <v>0.393</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>4.59</v>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-3)']</t>
-        </is>
-      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>['Sia(a2-3)']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -876,30 +940,36 @@
         <v>4.10571032184168</v>
       </c>
       <c r="D11" t="n">
+        <v>4.10571032184168</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4.10571032184168</v>
+      </c>
+      <c r="F11" t="n">
         <v>5.306849999999999</v>
       </c>
-      <c r="E11" t="n">
+      <c r="G11" t="n">
         <v>0.438</v>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
         <v>6.29</v>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-3)']</t>
-        </is>
-      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>['Sia(a2-3)']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -918,30 +988,36 @@
         <v>4.071263742174115</v>
       </c>
       <c r="D12" t="n">
+        <v>4.071263742174115</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4.071263742174115</v>
+      </c>
+      <c r="F12" t="n">
         <v>10.9323</v>
       </c>
-      <c r="E12" t="n">
+      <c r="G12" t="n">
         <v>0.494</v>
       </c>
-      <c r="F12" t="n">
+      <c r="H12" t="n">
         <v>8.109999999999999</v>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-3)']</t>
-        </is>
-      </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>['Sia(a2-3)']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -960,30 +1036,36 @@
         <v>3.968167699217878</v>
       </c>
       <c r="D13" t="n">
+        <v>3.968167699217878</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3.968167699217878</v>
+      </c>
+      <c r="F13" t="n">
         <v>8.28354</v>
       </c>
-      <c r="E13" t="n">
+      <c r="G13" t="n">
         <v>0.46</v>
       </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
         <v>3.35</v>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-3)']</t>
-        </is>
-      </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>['Sia(a2-3)']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1002,30 +1084,36 @@
         <v>3.993249561324754</v>
       </c>
       <c r="D14" t="n">
+        <v>3.993249561324754</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.993249561324754</v>
+      </c>
+      <c r="F14" t="n">
         <v>6.192019201920193</v>
       </c>
-      <c r="E14" t="n">
+      <c r="G14" t="n">
         <v>0.398</v>
       </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
         <v>13.54</v>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-3)']</t>
-        </is>
-      </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>['Sia(a2-3)']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1044,30 +1132,36 @@
         <v>4.078905980367729</v>
       </c>
       <c r="D15" t="n">
+        <v>4.078905980367729</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4.078905980367729</v>
+      </c>
+      <c r="F15" t="n">
         <v>5.879254592125879</v>
       </c>
-      <c r="E15" t="n">
+      <c r="G15" t="n">
         <v>0.436</v>
       </c>
-      <c r="F15" t="n">
+      <c r="H15" t="n">
         <v>8.16</v>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-3)']</t>
-        </is>
-      </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>['Sia(a2-3)']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1086,30 +1180,36 @@
         <v>4.173715172887023</v>
       </c>
       <c r="D16" t="n">
+        <v>4.173715172887023</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4.173715172887023</v>
+      </c>
+      <c r="F16" t="n">
         <v>18.24866666666667</v>
       </c>
-      <c r="E16" t="n">
+      <c r="G16" t="n">
         <v>0.414</v>
       </c>
-      <c r="F16" t="n">
+      <c r="H16" t="n">
         <v>17.6</v>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-3)']</t>
-        </is>
-      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>['Sia(a2-3)']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -1128,30 +1228,36 @@
         <v>4.138221770002041</v>
       </c>
       <c r="D17" t="n">
+        <v>4.138221770002041</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4.138221770002041</v>
+      </c>
+      <c r="F17" t="n">
         <v>14.1741</v>
       </c>
-      <c r="E17" t="n">
+      <c r="G17" t="n">
         <v>0.431</v>
       </c>
-      <c r="F17" t="n">
+      <c r="H17" t="n">
         <v>3.53</v>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-3)']</t>
-        </is>
-      </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>['Sia(a2-3)']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -1170,30 +1276,36 @@
         <v>4.022184951540781</v>
       </c>
       <c r="D18" t="n">
+        <v>4.022184951540781</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4.022184951540781</v>
+      </c>
+      <c r="F18" t="n">
         <v>15.19273333333334</v>
       </c>
-      <c r="E18" t="n">
+      <c r="G18" t="n">
         <v>0.503</v>
       </c>
-      <c r="F18" t="n">
+      <c r="H18" t="n">
         <v>12.5</v>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-3)']</t>
-        </is>
-      </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>['Sia(a2-3)']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -1212,30 +1324,36 @@
         <v>4.153007729280333</v>
       </c>
       <c r="D19" t="n">
+        <v>4.153007729280333</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4.153007729280333</v>
+      </c>
+      <c r="F19" t="n">
         <v>2.15392</v>
       </c>
-      <c r="E19" t="n">
+      <c r="G19" t="n">
         <v>0.397</v>
       </c>
-      <c r="F19" t="n">
+      <c r="H19" t="n">
         <v>8.84</v>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-3)']</t>
-        </is>
-      </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>['Sia(a2-3)']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -1254,30 +1372,36 @@
         <v>4.170488355819718</v>
       </c>
       <c r="D20" t="n">
+        <v>4.170488355819718</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4.170488355819718</v>
+      </c>
+      <c r="F20" t="n">
         <v>2.23434</v>
       </c>
-      <c r="E20" t="n">
+      <c r="G20" t="n">
         <v>0.416</v>
       </c>
-      <c r="F20" t="n">
+      <c r="H20" t="n">
         <v>8.220000000000001</v>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-3)']</t>
-        </is>
-      </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>['Sia(a2-3)']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1296,30 +1420,36 @@
         <v>4.22816390159193</v>
       </c>
       <c r="D21" t="n">
+        <v>4.22816390159193</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4.22816390159193</v>
+      </c>
+      <c r="F21" t="n">
         <v>3.087</v>
       </c>
-      <c r="E21" t="n">
+      <c r="G21" t="n">
         <v>0.408</v>
       </c>
-      <c r="F21" t="n">
+      <c r="H21" t="n">
         <v>15.81</v>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-3)']</t>
-        </is>
-      </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>['Sia(a2-3)']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1338,30 +1468,36 @@
         <v>3.928310080631037</v>
       </c>
       <c r="D22" t="n">
+        <v>7.856620161262073</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4.194092176920991</v>
+      </c>
+      <c r="F22" t="n">
         <v>50.5171</v>
       </c>
-      <c r="E22" t="n">
+      <c r="G22" t="n">
         <v>0.4355</v>
       </c>
-      <c r="F22" t="n">
+      <c r="H22" t="n">
         <v>9.645</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>['2C5', '2C5']</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>['Neu5Ac(a2-3)', 'Neu5Ac(a2-3)']</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>['Sia(a2-3)']</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1380,30 +1516,36 @@
         <v>3.985818711945287</v>
       </c>
       <c r="D23" t="n">
+        <v>7.971637423890574</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4.249764853871158</v>
+      </c>
+      <c r="F23" t="n">
         <v>35.03276339032763</v>
       </c>
-      <c r="E23" t="n">
+      <c r="G23" t="n">
         <v>0.4005</v>
       </c>
-      <c r="F23" t="n">
+      <c r="H23" t="n">
         <v>46.27</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>['2C5', 'B2,5']</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>['Neu5Ac(a2-3)', 'Neu5Ac(a2-3)']</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>['Sia(a2-3)']</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1422,30 +1564,36 @@
         <v>3.667641806563517</v>
       </c>
       <c r="D24" t="n">
+        <v>3.667641806563517</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3.667641806563517</v>
+      </c>
+      <c r="F24" t="n">
         <v>71.97976464313098</v>
       </c>
-      <c r="E24" t="n">
+      <c r="G24" t="n">
         <v>0.423</v>
       </c>
-      <c r="F24" t="n">
+      <c r="H24" t="n">
         <v>5.18</v>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-3)']</t>
-        </is>
-      </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>['Sia(a2-3)']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1464,30 +1612,36 @@
         <v>4.092251619966888</v>
       </c>
       <c r="D25" t="n">
+        <v>8.184503239933775</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4.102521617277463</v>
+      </c>
+      <c r="F25" t="n">
         <v>21.34189847556184</v>
       </c>
-      <c r="E25" t="n">
+      <c r="G25" t="n">
         <v>0.4565</v>
       </c>
-      <c r="F25" t="n">
+      <c r="H25" t="n">
         <v>5.815</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>['2C5', '2C5']</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>['Neu5Ac(a2-3)', 'Neu5Ac(a2-3)']</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>['Sia(a2-3)']</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1506,30 +1660,36 @@
         <v>4.027885718913207</v>
       </c>
       <c r="D26" t="n">
+        <v>4.027885718913207</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4.027885718913207</v>
+      </c>
+      <c r="F26" t="n">
         <v>12.51878145518781</v>
       </c>
-      <c r="E26" t="n">
+      <c r="G26" t="n">
         <v>0.408</v>
       </c>
-      <c r="F26" t="n">
+      <c r="H26" t="n">
         <v>83.06999999999999</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>['B2,5']</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-3)']</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>['Sia(a2-3)']</t>
-        </is>
-      </c>
       <c r="J26" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -1548,30 +1708,36 @@
         <v>4.167609593599931</v>
       </c>
       <c r="D27" t="n">
+        <v>4.167609593599931</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4.167609593599931</v>
+      </c>
+      <c r="F27" t="n">
         <v>14.70001428571429</v>
       </c>
-      <c r="E27" t="n">
+      <c r="G27" t="n">
         <v>0.381</v>
       </c>
-      <c r="F27" t="n">
+      <c r="H27" t="n">
         <v>12.55</v>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-3)']</t>
-        </is>
-      </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>['Sia(a2-3)']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1590,30 +1756,36 @@
         <v>4.278803872701642</v>
       </c>
       <c r="D28" t="n">
+        <v>4.278803872701642</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4.278803872701642</v>
+      </c>
+      <c r="F28" t="n">
         <v>2.78275</v>
       </c>
-      <c r="E28" t="n">
+      <c r="G28" t="n">
         <v>0.401</v>
       </c>
-      <c r="F28" t="n">
+      <c r="H28" t="n">
         <v>10.31</v>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-3)']</t>
-        </is>
-      </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>['Sia(a2-3)']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1632,30 +1804,36 @@
         <v>3.824403933866689</v>
       </c>
       <c r="D29" t="n">
+        <v>7.648807867733378</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3.863303769247083</v>
+      </c>
+      <c r="F29" t="n">
         <v>10.38003333333333</v>
       </c>
-      <c r="E29" t="n">
+      <c r="G29" t="n">
         <v>0.4415</v>
       </c>
-      <c r="F29" t="n">
+      <c r="H29" t="n">
         <v>3.03</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>['2C5', '2C5']</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>['Neu5Ac(a2-3)', 'Neu5Ac(a2-3)']</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>['Sia(a2-3)']</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1674,30 +1852,36 @@
         <v>4.168445786373701</v>
       </c>
       <c r="D30" t="n">
+        <v>4.168445786373701</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4.168445786373701</v>
+      </c>
+      <c r="F30" t="n">
         <v>7.913600000000001</v>
       </c>
-      <c r="E30" t="n">
+      <c r="G30" t="n">
         <v>0.379</v>
       </c>
-      <c r="F30" t="n">
+      <c r="H30" t="n">
         <v>5.91</v>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-3)']</t>
-        </is>
-      </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>['Sia(a2-3)']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1716,30 +1900,36 @@
         <v>3.931889049409715</v>
       </c>
       <c r="D31" t="n">
+        <v>3.931889049409715</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.931889049409715</v>
+      </c>
+      <c r="F31" t="n">
         <v>16.8069</v>
       </c>
-      <c r="E31" t="n">
+      <c r="G31" t="n">
         <v>0.451</v>
       </c>
-      <c r="F31" t="n">
+      <c r="H31" t="n">
         <v>7.21</v>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-3)']</t>
-        </is>
-      </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>['Sia(a2-3)']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1758,30 +1948,36 @@
         <v>4.079428967749397</v>
       </c>
       <c r="D32" t="n">
+        <v>8.158857935498794</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4.107388772174652</v>
+      </c>
+      <c r="F32" t="n">
         <v>14.60475</v>
       </c>
-      <c r="E32" t="n">
+      <c r="G32" t="n">
         <v>0.4845</v>
       </c>
-      <c r="F32" t="n">
+      <c r="H32" t="n">
         <v>3.68</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>['2C5', '2C5']</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>['Neu5Ac(a2-3)', 'Neu5Ac(a2-3)']</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>['Sia(a2-3)']</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1800,30 +1996,36 @@
         <v>4.120631616006582</v>
       </c>
       <c r="D33" t="n">
+        <v>4.120631616006582</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4.120631616006582</v>
+      </c>
+      <c r="F33" t="n">
         <v>4.55372</v>
       </c>
-      <c r="E33" t="n">
+      <c r="G33" t="n">
         <v>0.381</v>
       </c>
-      <c r="F33" t="n">
+      <c r="H33" t="n">
         <v>18.58</v>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-3)']</t>
-        </is>
-      </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>['Sia(a2-3)']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1842,30 +2044,36 @@
         <v>4.206395016477455</v>
       </c>
       <c r="D34" t="n">
+        <v>4.206395016477455</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4.206395016477455</v>
+      </c>
+      <c r="F34" t="n">
         <v>3.922066666666667</v>
       </c>
-      <c r="E34" t="n">
+      <c r="G34" t="n">
         <v>0.385</v>
       </c>
-      <c r="F34" t="n">
+      <c r="H34" t="n">
         <v>16.2</v>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-3)']</t>
-        </is>
-      </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>['Sia(a2-3)']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1884,30 +2092,36 @@
         <v>4.257635815143493</v>
       </c>
       <c r="D35" t="n">
+        <v>4.257635815143493</v>
+      </c>
+      <c r="E35" t="n">
+        <v>4.257635815143493</v>
+      </c>
+      <c r="F35" t="n">
         <v>9</v>
       </c>
-      <c r="E35" t="n">
+      <c r="G35" t="n">
         <v>0.443</v>
       </c>
-      <c r="F35" t="n">
+      <c r="H35" t="n">
         <v>6.09</v>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-3)']</t>
-        </is>
-      </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>['Sia(a2-3)']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1926,30 +2140,36 @@
         <v>4.168356934984343</v>
       </c>
       <c r="D36" t="n">
+        <v>4.168356934984343</v>
+      </c>
+      <c r="E36" t="n">
+        <v>4.168356934984343</v>
+      </c>
+      <c r="F36" t="n">
         <v>11.87956</v>
       </c>
-      <c r="E36" t="n">
+      <c r="G36" t="n">
         <v>0.441</v>
       </c>
-      <c r="F36" t="n">
+      <c r="H36" t="n">
         <v>10.7</v>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-3)']</t>
-        </is>
-      </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>['Sia(a2-3)']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1968,30 +2188,36 @@
         <v>4.131295532861801</v>
       </c>
       <c r="D37" t="n">
+        <v>8.262591065723601</v>
+      </c>
+      <c r="E37" t="n">
+        <v>4.176913134284119</v>
+      </c>
+      <c r="F37" t="n">
         <v>15.88562856285629</v>
       </c>
-      <c r="E37" t="n">
+      <c r="G37" t="n">
         <v>0.392</v>
       </c>
-      <c r="F37" t="n">
+      <c r="H37" t="n">
         <v>7.59</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>['2C5', '2C5']</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>['Neu5Ac(a2-3)', 'Neu5Ac(a2-3)']</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>['Sia(a2-3)']</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -2010,30 +2236,36 @@
         <v>4.010868926115827</v>
       </c>
       <c r="D38" t="n">
+        <v>4.010868926115827</v>
+      </c>
+      <c r="E38" t="n">
+        <v>4.010868926115827</v>
+      </c>
+      <c r="F38" t="n">
         <v>1.386838683868387</v>
       </c>
-      <c r="E38" t="n">
+      <c r="G38" t="n">
         <v>0.504</v>
       </c>
-      <c r="F38" t="n">
+      <c r="H38" t="n">
         <v>2.8</v>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-3)']</t>
-        </is>
-      </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>['Sia(a2-3)']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -2052,30 +2284,36 @@
         <v>3.753542218834862</v>
       </c>
       <c r="D39" t="n">
+        <v>3.753542218834862</v>
+      </c>
+      <c r="E39" t="n">
+        <v>3.753542218834862</v>
+      </c>
+      <c r="F39" t="n">
         <v>4.296796346301297</v>
       </c>
-      <c r="E39" t="n">
+      <c r="G39" t="n">
         <v>0.411</v>
       </c>
-      <c r="F39" t="n">
+      <c r="H39" t="n">
         <v>4.76</v>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-3)']</t>
-        </is>
-      </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>['Sia(a2-3)']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -2094,30 +2332,36 @@
         <v>3.782654212143295</v>
       </c>
       <c r="D40" t="n">
+        <v>3.782654212143295</v>
+      </c>
+      <c r="E40" t="n">
+        <v>3.782654212143295</v>
+      </c>
+      <c r="F40" t="n">
         <v>64.06836000000001</v>
       </c>
-      <c r="E40" t="n">
+      <c r="G40" t="n">
         <v>0.414</v>
       </c>
-      <c r="F40" t="n">
+      <c r="H40" t="n">
         <v>1.99</v>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-3)']</t>
-        </is>
-      </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>['Sia(a2-3)']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -2136,30 +2380,36 @@
         <v>3.437588662859488</v>
       </c>
       <c r="D41" t="n">
+        <v>3.437588662859488</v>
+      </c>
+      <c r="E41" t="n">
+        <v>3.437588662859488</v>
+      </c>
+      <c r="F41" t="n">
         <v>7.453566666666666</v>
       </c>
-      <c r="E41" t="n">
+      <c r="G41" t="n">
         <v>0.403</v>
       </c>
-      <c r="F41" t="n">
+      <c r="H41" t="n">
         <v>11.48</v>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-3)']</t>
-        </is>
-      </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>['Sia(a2-3)']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -2178,30 +2428,36 @@
         <v>3.658147087190824</v>
       </c>
       <c r="D42" t="n">
+        <v>3.658147087190824</v>
+      </c>
+      <c r="E42" t="n">
+        <v>3.658147087190824</v>
+      </c>
+      <c r="F42" t="n">
         <v>20.77274</v>
       </c>
-      <c r="E42" t="n">
+      <c r="G42" t="n">
         <v>0.403</v>
       </c>
-      <c r="F42" t="n">
+      <c r="H42" t="n">
         <v>17.95</v>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-3)']</t>
-        </is>
-      </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>['Sia(a2-3)']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -2220,30 +2476,36 @@
         <v>3.879456189488625</v>
       </c>
       <c r="D43" t="n">
+        <v>3.879456189488625</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3.879456189488625</v>
+      </c>
+      <c r="F43" t="n">
         <v>33.66249999999999</v>
       </c>
-      <c r="E43" t="n">
+      <c r="G43" t="n">
         <v>0.42</v>
       </c>
-      <c r="F43" t="n">
+      <c r="H43" t="n">
         <v>6.44</v>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>['Neu5Ac(a2-3)']</t>
-        </is>
-      </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>['Sia(a2-3)']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -2262,30 +2524,36 @@
         <v>4.35395110425367</v>
       </c>
       <c r="D44" t="n">
+        <v>4.35395110425367</v>
+      </c>
+      <c r="E44" t="n">
+        <v>4.35395110425367</v>
+      </c>
+      <c r="F44" t="n">
         <v>2.305422222222222</v>
       </c>
-      <c r="E44" t="n">
+      <c r="G44" t="n">
         <v>0.334</v>
       </c>
-      <c r="F44" t="n">
+      <c r="H44" t="n">
         <v>5.28</v>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
         <is>
           <t>['Neu5Gc(a2-3)']</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>['Sia(a2-3)']</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -2304,30 +2572,36 @@
         <v>4.193664264730816</v>
       </c>
       <c r="D45" t="n">
+        <v>4.193664264730816</v>
+      </c>
+      <c r="E45" t="n">
+        <v>4.193664264730816</v>
+      </c>
+      <c r="F45" t="n">
         <v>3.918571857185718</v>
       </c>
-      <c r="E45" t="n">
+      <c r="G45" t="n">
         <v>0.372</v>
       </c>
-      <c r="F45" t="n">
+      <c r="H45" t="n">
         <v>9.449999999999999</v>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
         <is>
           <t>['Neu5Gc(a2-3)']</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>['Sia(a2-3)']</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -2346,30 +2620,36 @@
         <v>4.41969593359119</v>
       </c>
       <c r="D46" t="n">
+        <v>4.41969593359119</v>
+      </c>
+      <c r="E46" t="n">
+        <v>4.41969593359119</v>
+      </c>
+      <c r="F46" t="n">
         <v>1.044466666666667</v>
       </c>
-      <c r="E46" t="n">
+      <c r="G46" t="n">
         <v>0.438</v>
       </c>
-      <c r="F46" t="n">
+      <c r="H46" t="n">
         <v>13.11</v>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
         <is>
           <t>['Neu5Gc(a2-3)']</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>['Sia(a2-3)']</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -2388,30 +2668,36 @@
         <v>4.351221609869249</v>
       </c>
       <c r="D47" t="n">
+        <v>4.351221609869249</v>
+      </c>
+      <c r="E47" t="n">
+        <v>4.351221609869249</v>
+      </c>
+      <c r="F47" t="n">
         <v>1.609289071092891</v>
       </c>
-      <c r="E47" t="n">
+      <c r="G47" t="n">
         <v>0.442</v>
       </c>
-      <c r="F47" t="n">
+      <c r="H47" t="n">
         <v>10.52</v>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
         <is>
           <t>['Neu5Gc(a2-3)']</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>['Sia(a2-3)']</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -2430,30 +2716,36 @@
         <v>4.318021917989927</v>
       </c>
       <c r="D48" t="n">
+        <v>4.318021917989927</v>
+      </c>
+      <c r="E48" t="n">
+        <v>4.318021917989927</v>
+      </c>
+      <c r="F48" t="n">
         <v>4.46855314468553</v>
       </c>
-      <c r="E48" t="n">
+      <c r="G48" t="n">
         <v>0.434</v>
       </c>
-      <c r="F48" t="n">
+      <c r="H48" t="n">
         <v>8.869999999999999</v>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>['2C5']</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
         <is>
           <t>['Neu5Gc(a2-3)']</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>['Sia(a2-3)']</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
         <is>
           <t>O</t>
         </is>
